--- a/code/python/tables_to_analisys/test.xlsx
+++ b/code/python/tables_to_analisys/test.xlsx
@@ -11,63 +11,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="7">
+  <si>
+    <t>obj</t>
+  </si>
   <si>
     <t>seq</t>
   </si>
   <si>
-    <t>obj</t>
+    <t>action</t>
   </si>
   <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>trade</t>
-  </si>
-  <si>
-    <t>pfilled</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>cancel</t>
+    <t>placed</t>
   </si>
   <si>
     <t>canceled</t>
   </si>
   <si>
-    <t>d</t>
+    <t>place</t>
   </si>
   <si>
-    <t>filled</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>amend</t>
-  </si>
-  <si>
-    <t>reject</t>
+    <t>cancel</t>
   </si>
 </sst>
 </file>
@@ -101,7 +65,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -111,7 +75,6 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -327,13 +290,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="3.63"/>
-    <col customWidth="1" min="2" max="2" width="3.25"/>
-    <col customWidth="1" min="3" max="3" width="6.13"/>
-    <col customWidth="1" min="4" max="4" width="7.63"/>
-    <col customWidth="1" min="5" max="5" width="3.63"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -353,258 +309,615 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>16</v>
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="1">
         <v>4.0</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
